--- a/2 курс 2 семестр/ПиТПМ/Тест-кейс.xlsx
+++ b/2 курс 2 семестр/ПиТПМ/Тест-кейс.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TC1" sheetId="1" r:id="rId1"/>
@@ -354,21 +354,29 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1289,6 +1297,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1301,13 +1316,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1525,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1579,11 +1587,11 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="95" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="100" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="10"/>
@@ -1616,9 +1624,9 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="98"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
@@ -8623,8 +8631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8677,11 +8685,11 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="95" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="100" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="10"/>
@@ -8714,9 +8722,9 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="98"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
@@ -8847,7 +8855,7 @@
       <c r="B7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="95" t="s">
         <v>100</v>
       </c>
       <c r="D7" s="25"/>
@@ -8943,7 +8951,7 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="99">
+      <c r="A10" s="93">
         <v>4</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -8952,7 +8960,7 @@
       <c r="C10" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="100"/>
+      <c r="H10" s="94"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -16202,8 +16210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16256,11 +16264,11 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="95" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="100" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="10"/>
@@ -16293,9 +16301,9 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="98"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
@@ -16926,7 +16934,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -23795,7 +23803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -23849,11 +23857,11 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="95" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="100" t="s">
         <v>90</v>
       </c>
       <c r="D2" s="10"/>
@@ -23886,9 +23894,9 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="98"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
